--- a/Tools/TableTools/Tables/Excel/Skill/Tab_MoveData.xlsx
+++ b/Tools/TableTools/Tables/Excel/Skill/Tab_MoveData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,49 @@
   </si>
   <si>
     <t>Def:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLockTarget</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否锁定目标，如果不是锁定目标的运动则需要指定距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线类型（直线，抛物线等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向（单位是角度，往左是负，往右是正）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个角度是相对于谁来讲的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否应用到目标上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -425,25 +468,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,33 +497,36 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -488,16 +537,49 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tools/TableTools/Tables/Excel/Skill/Tab_MoveData.xlsx
+++ b/Tools/TableTools/Tables/Excel/Skill/Tab_MoveData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>是否应用到目标上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjustTowardSender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在应用这个位移之前，是否应该将朝向调整面向发送者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,8 +500,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,8 +532,11 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -546,8 +564,11 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -574,6 +595,9 @@
       </c>
       <c r="I4" t="s">
         <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
